--- a/Moc/MocGenerate.xlsx
+++ b/Moc/MocGenerate.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1620</v>
+        <v>139640</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4180</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2920</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4720</v>
+        <v>68450</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>650</v>
+        <v>69110</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4330</v>
+        <v>61020</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2110</v>
+        <v>109460</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4050</v>
+        <v>90790</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>980</v>
+        <v>176220</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>650</v>
+        <v>99100</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>420</v>
+        <v>50740</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2070</v>
+        <v>34960</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4180</v>
+        <v>51850</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2470</v>
+        <v>73770</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1400</v>
+        <v>138720</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2620</v>
+        <v>196400</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6250</v>
+        <v>117010</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4830</v>
+        <v>65060</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>6250</v>
+        <v>143370</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4770</v>
+        <v>116560</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>5120</v>
+        <v>78760</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1680</v>
+        <v>77650</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3570</v>
+        <v>113570</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1150</v>
+        <v>60320</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5600</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1320</v>
+        <v>172280</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>2180</v>
+        <v>22300</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>5250</v>
+        <v>65350</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>6250</v>
+        <v>87640</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>5650</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>3700</v>
+        <v>70100</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>3050</v>
+        <v>61240</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>6250</v>
+        <v>79900</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>6250</v>
+        <v>142390</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>2700</v>
+        <v>156230</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>3200</v>
+        <v>116850</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>3700</v>
+        <v>93970</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>5720</v>
+        <v>110060</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>4000</v>
+        <v>160490</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>3020</v>
+        <v>138820</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>3940</v>
+        <v>46970</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>3180</v>
+        <v>145170</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>6250</v>
+        <v>139970</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>5330</v>
+        <v>59930</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>6250</v>
+        <v>200220</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>2280</v>
+        <v>102300</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>3500</v>
+        <v>105660</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>2360</v>
+        <v>159800</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>5600</v>
+        <v>72820</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1150</v>
+        <v>87180</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>2700</v>
+        <v>99780</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1710</v>
+        <v>14220</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>6250</v>
+        <v>76460</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>4080</v>
+        <v>64350</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1050</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>3520</v>
+        <v>37310</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>420</v>
+        <v>54100</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>5800</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>6250</v>
+        <v>49240</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>6250</v>
+        <v>102350</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>5650</v>
+        <v>97790</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>3650</v>
+        <v>165220</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1450</v>
+        <v>43370</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>6250</v>
+        <v>77340</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1530</v>
+        <v>28760</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>3630</v>
+        <v>115610</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>5650</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1230</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>1500</v>
+        <v>34910</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>3620</v>
+        <v>204460</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>6250</v>
+        <v>65850</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>4750</v>
+        <v>32550</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>4200</v>
+        <v>124300</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>4680</v>
+        <v>85850</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>3730</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>970</v>
+        <v>21110</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>550</v>
+        <v>62290</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>4650</v>
+        <v>56390</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1550</v>
+        <v>65100</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>4520</v>
+        <v>63900</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>2440</v>
+        <v>90820</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>2150</v>
+        <v>137690</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>4180</v>
+        <v>40190</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>4100</v>
+        <v>63390</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>5670</v>
+        <v>29190</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>3130</v>
+        <v>47010</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1750</v>
+        <v>94590</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>5600</v>
+        <v>72390</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>4180</v>
+        <v>160290</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>3600</v>
+        <v>134720</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1430</v>
+        <v>36130</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6250</v>
+        <v>71750</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>5180</v>
+        <v>63970</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>6250</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>4230</v>
+        <v>111600</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>650</v>
+        <v>182390</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1470</v>
+        <v>132720</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>4650</v>
+        <v>86160</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>450</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>5600</v>
+        <v>141710</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>5670</v>
+        <v>50960</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>3050</v>
+        <v>84240</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1680</v>
+        <v>130440</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1600</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>5670</v>
+        <v>18060</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>4800</v>
+        <v>159050</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>2070</v>
+        <v>112510</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>4730</v>
+        <v>21740</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>2100</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>4100</v>
+        <v>33900</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>5150</v>
+        <v>59820</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>3350</v>
+        <v>79360</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>2000</v>
+        <v>138080</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2520</v>
+        <v>90680</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>4620</v>
+        <v>70320</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>4700</v>
+        <v>25610</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>5180</v>
+        <v>117100</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>2450</v>
+        <v>66020</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>5230</v>
+        <v>176680</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>4230</v>
+        <v>42920</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>2990</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>4670</v>
+        <v>137520</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>3000</v>
+        <v>187280</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>5300</v>
+        <v>46310</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>4620</v>
+        <v>105750</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>5650</v>
+        <v>62100</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1400</v>
+        <v>103500</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>500</v>
+        <v>12080</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1630</v>
+        <v>125790</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>5230</v>
+        <v>23340</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>4730</v>
+        <v>86420</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>4620</v>
+        <v>142910</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>4170</v>
+        <v>127620</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>2170</v>
+        <v>63280</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>530</v>
+        <v>88580</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>6250</v>
+        <v>141550</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>3700</v>
+        <v>132220</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>6250</v>
+        <v>128090</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>420</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>6250</v>
+        <v>122570</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>500</v>
+        <v>38840</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>6250</v>
+        <v>125480</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>4590</v>
+        <v>76500</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1050</v>
+        <v>181330</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2650</v>
+        <v>32820</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>5100</v>
+        <v>19480</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>5830</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>2440</v>
+        <v>69510</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>3070</v>
+        <v>196100</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>6250</v>
+        <v>157530</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>3720</v>
+        <v>41540</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>4470</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>2120</v>
+        <v>31530</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>4680</v>
+        <v>32190</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>5150</v>
+        <v>110270</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>5180</v>
+        <v>68270</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>420</v>
+        <v>70060</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>1230</v>
+        <v>95200</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>3830</v>
+        <v>94120</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>5120</v>
+        <v>77700</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>2650</v>
+        <v>43740</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>2680</v>
+        <v>135140</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>3300</v>
+        <v>52900</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>2100</v>
+        <v>156960</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>5830</v>
+        <v>149040</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>3750</v>
+        <v>112490</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>5170</v>
+        <v>30990</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>2700</v>
+        <v>76770</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>2890</v>
+        <v>154570</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>3120</v>
+        <v>146710</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>2750</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>4150</v>
+        <v>146660</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>5120</v>
+        <v>103620</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1600</v>
+        <v>87830</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1230</v>
+        <v>67430</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>4800</v>
+        <v>47950</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>4030</v>
+        <v>49310</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>3680</v>
+        <v>105080</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>6250</v>
+        <v>68890</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>3130</v>
+        <v>51150</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>2180</v>
+        <v>122900</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>580</v>
+        <v>163220</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>6250</v>
+        <v>19320</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>500</v>
+        <v>140010</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>6250</v>
+        <v>116000</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>2150</v>
+        <v>167140</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>2980</v>
+        <v>60560</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>5180</v>
+        <v>98600</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>4730</v>
+        <v>139630</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>5750</v>
+        <v>100530</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>4640</v>
+        <v>140320</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>6250</v>
+        <v>126330</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>2180</v>
+        <v>51820</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>3000</v>
+        <v>80780</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>2130</v>
+        <v>66410</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>4130</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>3100</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>5100</v>
+        <v>107320</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>2000</v>
+        <v>165180</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>5830</v>
+        <v>52060</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>4600</v>
+        <v>87450</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>3670</v>
+        <v>173940</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>4930</v>
+        <v>21740</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>5600</v>
+        <v>84750</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>4600</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>5830</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>1980</v>
+        <v>129080</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>4700</v>
+        <v>52080</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>3250</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>4800</v>
+        <v>134220</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>4150</v>
+        <v>166930</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>2180</v>
+        <v>144960</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>4800</v>
+        <v>170310</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>5670</v>
+        <v>21650</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>2370</v>
+        <v>80870</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>6250</v>
+        <v>110860</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>6250</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>530</v>
+        <v>73320</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>870</v>
+        <v>88500</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>3500</v>
+        <v>190120</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>5050</v>
+        <v>33060</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>1520</v>
+        <v>144900</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>600</v>
+        <v>22950</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>3150</v>
+        <v>157410</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>4430</v>
+        <v>51340</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>4650</v>
+        <v>87200</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>4120</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>5700</v>
+        <v>160210</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>3390</v>
+        <v>56050</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>1100</v>
+        <v>81600</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>920</v>
+        <v>117790</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>2630</v>
+        <v>80960</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>3730</v>
+        <v>90450</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>3970</v>
+        <v>50340</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>6250</v>
+        <v>59360</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>1400</v>
+        <v>11910</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>2950</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>2080</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>2450</v>
+        <v>162430</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>3110</v>
+        <v>116940</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>5230</v>
+        <v>168260</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>4730</v>
+        <v>53700</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>3670</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>3750</v>
+        <v>110980</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>1150</v>
+        <v>199980</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>1680</v>
+        <v>178250</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>5830</v>
+        <v>38550</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>6250</v>
+        <v>165570</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>1950</v>
+        <v>150250</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>3180</v>
+        <v>150300</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>450</v>
+        <v>126610</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>2050</v>
+        <v>28080</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>4780</v>
+        <v>140290</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>4160</v>
+        <v>56280</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>580</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>2710</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>4150</v>
+        <v>107410</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>1600</v>
+        <v>105800</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>3200</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>5250</v>
+        <v>152210</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>2130</v>
+        <v>84610</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>950</v>
+        <v>172750</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>3320</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>5670</v>
+        <v>115710</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>3600</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>500</v>
+        <v>123910</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>3800</v>
+        <v>140790</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>2060</v>
+        <v>100940</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>840</v>
+        <v>53950</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>6250</v>
+        <v>51790</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>5380</v>
+        <v>147320</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>5380</v>
+        <v>144070</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>450</v>
+        <v>81640</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>4800</v>
+        <v>135140</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>2720</v>
+        <v>144870</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>2100</v>
+        <v>166640</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>4100</v>
+        <v>165310</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>3200</v>
+        <v>59780</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>5200</v>
+        <v>178620</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>3000</v>
+        <v>163420</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>5300</v>
+        <v>107210</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>6250</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>2550</v>
+        <v>111450</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>450</v>
+        <v>23160</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>2520</v>
+        <v>46320</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1830</v>
+        <v>133570</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>1680</v>
+        <v>222750</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>3100</v>
+        <v>62610</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>6250</v>
+        <v>56210</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>6250</v>
+        <v>77100</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>1680</v>
+        <v>120050</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>6250</v>
+        <v>200770</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>3070</v>
+        <v>66120</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>600</v>
+        <v>31070</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>2260</v>
+        <v>93370</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>6250</v>
+        <v>29780</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>2130</v>
+        <v>91560</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>5800</v>
+        <v>79720</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>4730</v>
+        <v>70150</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>5720</v>
+        <v>36450</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>5600</v>
+        <v>116070</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>1100</v>
+        <v>147840</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>4730</v>
+        <v>51350</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>2600</v>
+        <v>86450</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>600</v>
+        <v>49560</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>5750</v>
+        <v>20320</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>5750</v>
+        <v>63010</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>4140</v>
+        <v>125780</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>3680</v>
+        <v>66160</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>2950</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>970</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>5070</v>
+        <v>86430</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>2450</v>
+        <v>94730</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>2380</v>
+        <v>163110</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>2230</v>
+        <v>24940</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>6250</v>
+        <v>98040</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>5230</v>
+        <v>90950</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>3600</v>
+        <v>128900</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>2070</v>
+        <v>130740</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>450</v>
+        <v>83540</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>5300</v>
+        <v>136310</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>2370</v>
+        <v>43620</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>4750</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>6250</v>
+        <v>58350</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>3620</v>
+        <v>117450</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>4180</v>
+        <v>135810</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>420</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>1680</v>
+        <v>75640</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>3520</v>
+        <v>157630</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>3550</v>
+        <v>35550</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>500</v>
+        <v>79870</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>5220</v>
+        <v>116720</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>5670</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>4250</v>
+        <v>76080</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>4150</v>
+        <v>57130</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1100</v>
+        <v>15080</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>5830</v>
+        <v>89070</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>4350</v>
+        <v>66180</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>1820</v>
+        <v>101830</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>3180</v>
+        <v>37530</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>1620</v>
+        <v>78260</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>5650</v>
+        <v>61220</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>1970</v>
+        <v>140080</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>4020</v>
+        <v>129040</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>1710</v>
+        <v>63520</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>5220</v>
+        <v>147940</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>4780</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>4780</v>
+        <v>111400</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>4150</v>
+        <v>85230</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>4170</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>1050</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>2550</v>
+        <v>77010</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>420</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>1470</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>3110</v>
+        <v>83070</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>6250</v>
+        <v>103930</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>4810</v>
+        <v>131000</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>1070</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>1630</v>
+        <v>36750</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>5750</v>
+        <v>84450</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>2600</v>
+        <v>117070</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>3780</v>
+        <v>15660</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>3210</v>
+        <v>61580</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>1650</v>
+        <v>93440</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>450</v>
+        <v>76040</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>4670</v>
+        <v>17350</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>6250</v>
+        <v>94390</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>4770</v>
+        <v>127830</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>5070</v>
+        <v>152170</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>4150</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>5650</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>1550</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>2420</v>
+        <v>139480</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>4000</v>
+        <v>125580</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>6250</v>
+        <v>18550</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>6250</v>
+        <v>133960</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>4930</v>
+        <v>29770</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>4730</v>
+        <v>160720</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>420</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>3810</v>
+        <v>39670</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>4800</v>
+        <v>54820</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>2820</v>
+        <v>76980</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>1970</v>
+        <v>173430</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>4080</v>
+        <v>26990</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>4670</v>
+        <v>160050</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1950</v>
+        <v>32470</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>5150</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>1080</v>
+        <v>109490</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>5380</v>
+        <v>76660</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>4650</v>
+        <v>155180</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>5720</v>
+        <v>28980</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>5650</v>
+        <v>117540</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>1290</v>
+        <v>89770</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>920</v>
+        <v>118730</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>5750</v>
+        <v>41220</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>3650</v>
+        <v>116980</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>600</v>
+        <v>62990</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>4210</v>
+        <v>18810</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>3180</v>
+        <v>27100</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>3020</v>
+        <v>164260</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>4750</v>
+        <v>187190</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>5650</v>
+        <v>184360</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>2300</v>
+        <v>54420</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>3830</v>
+        <v>150070</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>1200</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>1000</v>
+        <v>92280</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>6250</v>
+        <v>113840</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>5150</v>
+        <v>124840</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>2790</v>
+        <v>80750</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>950</v>
+        <v>60170</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>4400</v>
+        <v>202860</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>5300</v>
+        <v>69230</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>920</v>
+        <v>62390</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>4550</v>
+        <v>165230</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>3630</v>
+        <v>59860</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>4180</v>
+        <v>51400</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>4650</v>
+        <v>160210</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>900</v>
+        <v>91750</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>4570</v>
+        <v>154420</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>3650</v>
+        <v>109120</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>3320</v>
+        <v>22350</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>4780</v>
+        <v>99790</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>3360</v>
+        <v>85900</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>2630</v>
+        <v>37410</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>1030</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>420</v>
+        <v>96620</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>5830</v>
+        <v>66110</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>980</v>
+        <v>55980</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>5250</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>4780</v>
+        <v>150320</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>3120</v>
+        <v>52210</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>4680</v>
+        <v>36540</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>1390</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>6250</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>5750</v>
+        <v>144400</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>500</v>
+        <v>158600</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>6250</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>3700</v>
+        <v>54320</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>2180</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>1130</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>6250</v>
+        <v>48680</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>2080</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>920</v>
+        <v>31550</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>2730</v>
+        <v>185950</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>6250</v>
+        <v>83360</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1550</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>1870</v>
+        <v>159790</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>4880</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>2000</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>950</v>
+        <v>116810</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>4170</v>
+        <v>140500</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>6250</v>
+        <v>176460</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>5830</v>
+        <v>25700</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>5280</v>
+        <v>55160</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>3070</v>
+        <v>120530</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>5200</v>
+        <v>65160</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>2180</v>
+        <v>71330</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>1500</v>
+        <v>86180</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>3760</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>2330</v>
+        <v>65570</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>3780</v>
+        <v>89240</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>4580</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>5220</v>
+        <v>118100</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>3180</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>3660</v>
+        <v>43320</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>1470</v>
+        <v>83280</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>2990</v>
+        <v>101630</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>4400</v>
+        <v>98440</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>3650</v>
+        <v>162630</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1050</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>2620</v>
+        <v>172930</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>3800</v>
+        <v>156050</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>3130</v>
+        <v>144510</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>3680</v>
+        <v>75290</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>3080</v>
+        <v>130450</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>3250</v>
+        <v>74770</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>1890</v>
+        <v>63080</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>2620</v>
+        <v>101460</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>4300</v>
+        <v>142110</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>3830</v>
+        <v>134570</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>2130</v>
+        <v>87740</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>6250</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>1020</v>
+        <v>62590</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>870</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>2780</v>
+        <v>104170</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>1200</v>
+        <v>99870</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>2380</v>
+        <v>64350</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>3700</v>
+        <v>220570</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>6250</v>
+        <v>42280</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>4180</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>5650</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>5670</v>
+        <v>88550</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>600</v>
+        <v>65670</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>5280</v>
+        <v>98040</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>4720</v>
+        <v>25220</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>1050</v>
+        <v>41260</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>5230</v>
+        <v>140070</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>6250</v>
+        <v>123980</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1970</v>
+        <v>81730</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>420</v>
+        <v>36550</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>4230</v>
+        <v>187190</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>6250</v>
+        <v>15370</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>530</v>
+        <v>52580</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>4000</v>
+        <v>49720</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>5120</v>
+        <v>85010</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>5800</v>
+        <v>23130</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>5670</v>
+        <v>128870</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>1100</v>
+        <v>177980</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>5830</v>
+        <v>145010</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>3230</v>
+        <v>17550</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>4780</v>
+        <v>89640</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>1250</v>
+        <v>131080</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>2570</v>
+        <v>24590</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>500</v>
+        <v>28250</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>2550</v>
+        <v>78570</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>3530</v>
+        <v>55100</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>4540</v>
+        <v>43450</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>1100</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>4170</v>
+        <v>127810</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>4520</v>
+        <v>12760</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>2710</v>
+        <v>35950</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>6250</v>
+        <v>148580</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>3700</v>
+        <v>109250</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>2530</v>
+        <v>32760</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>1920</v>
+        <v>21940</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>6250</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>1130</v>
+        <v>124150</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>3230</v>
+        <v>73270</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>5100</v>
+        <v>53970</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>2260</v>
+        <v>27220</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>1790</v>
+        <v>50650</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>1150</v>
+        <v>153140</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>2580</v>
+        <v>27450</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>3700</v>
+        <v>119960</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>5650</v>
+        <v>78340</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>5720</v>
+        <v>174080</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>3070</v>
+        <v>94130</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>580</v>
+        <v>69610</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>2130</v>
+        <v>41250</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>5670</v>
+        <v>163420</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>2180</v>
+        <v>119250</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>3780</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>5300</v>
+        <v>35900</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>6250</v>
+        <v>118900</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>1550</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1450</v>
+        <v>114630</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>4300</v>
+        <v>60720</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>3350</v>
+        <v>115400</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>2990</v>
+        <v>101230</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>3050</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>1490</v>
+        <v>68750</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>4670</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>1080</v>
+        <v>92900</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>2180</v>
+        <v>154140</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>6250</v>
+        <v>150440</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>3830</v>
+        <v>166230</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>500</v>
+        <v>182630</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>1420</v>
+        <v>83930</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>1050</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>6250</v>
+        <v>95910</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>2150</v>
+        <v>56980</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>1700</v>
+        <v>72160</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>1080</v>
+        <v>88870</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>3700</v>
+        <v>116210</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>5600</v>
+        <v>51740</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>1150</v>
+        <v>49300</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>2440</v>
+        <v>159720</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>3320</v>
+        <v>66880</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>2970</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>5700</v>
+        <v>26040</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>1450</v>
+        <v>31660</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>1550</v>
+        <v>171630</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>3200</v>
+        <v>129630</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>4470</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>2800</v>
+        <v>69990</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>1050</v>
+        <v>85080</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>4430</v>
+        <v>31180</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>3970</v>
+        <v>109740</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>6250</v>
+        <v>16020</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>4650</v>
+        <v>88390</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>6250</v>
+        <v>113760</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>3600</v>
+        <v>83300</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>2150</v>
+        <v>87730</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>1600</v>
+        <v>100710</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>2370</v>
+        <v>115980</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>580</v>
+        <v>32920</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>5600</v>
+        <v>82300</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>2650</v>
+        <v>54490</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>2830</v>
+        <v>57820</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>6250</v>
+        <v>162590</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>5050</v>
+        <v>16380</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>1790</v>
+        <v>207090</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>5150</v>
+        <v>141310</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>1600</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>3780</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>4460</v>
+        <v>89170</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>4670</v>
+        <v>116110</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>6250</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>950</v>
+        <v>222210</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>6250</v>
+        <v>138930</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>3300</v>
+        <v>56530</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>4550</v>
+        <v>24360</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>2370</v>
+        <v>28950</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>3200</v>
+        <v>123290</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>6250</v>
+        <v>74600</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>5830</v>
+        <v>114310</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>3500</v>
+        <v>25940</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>6250</v>
+        <v>102940</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>5750</v>
+        <v>41090</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>5100</v>
+        <v>128130</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>3330</v>
+        <v>74030</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>6250</v>
+        <v>170130</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>6250</v>
+        <v>181010</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>6250</v>
+        <v>93460</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>5050</v>
+        <v>52640</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>4570</v>
+        <v>128670</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>6250</v>
+        <v>130170</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>1550</v>
+        <v>151530</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>550</v>
+        <v>48330</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>5250</v>
+        <v>51600</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>4780</v>
+        <v>148230</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>3670</v>
+        <v>61960</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>2080</v>
+        <v>57480</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>6250</v>
+        <v>166330</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>2570</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>3250</v>
+        <v>27890</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>2180</v>
+        <v>146160</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>3020</v>
+        <v>105800</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>5200</v>
+        <v>56820</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>2950</v>
+        <v>79800</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>6250</v>
+        <v>41240</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>1630</v>
+        <v>65710</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>1520</v>
+        <v>198440</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>2000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>2450</v>
+        <v>111460</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>1570</v>
+        <v>25780</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>5200</v>
+        <v>147280</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>450</v>
+        <v>122860</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>4280</v>
+        <v>133690</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>6250</v>
+        <v>162790</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>5280</v>
+        <v>149390</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>4250</v>
+        <v>160830</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>6250</v>
+        <v>110540</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>4020</v>
+        <v>111720</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>2050</v>
+        <v>78450</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>2660</v>
+        <v>157250</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>450</v>
+        <v>40840</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>3700</v>
+        <v>72510</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>1520</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>2320</v>
+        <v>24270</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>5830</v>
+        <v>40530</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>2100</v>
+        <v>70830</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>3300</v>
+        <v>118820</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>2100</v>
+        <v>126900</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>6250</v>
+        <v>115150</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>2750</v>
+        <v>95630</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>1630</v>
+        <v>31570</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>420</v>
+        <v>116470</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>3670</v>
+        <v>100480</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>4600</v>
+        <v>18420</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>1630</v>
+        <v>187250</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>6250</v>
+        <v>60220</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>3250</v>
+        <v>147620</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>3260</v>
+        <v>53200</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>5200</v>
+        <v>40940</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>5830</v>
+        <v>108800</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>1550</v>
+        <v>64920</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>5300</v>
+        <v>105560</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>420</v>
+        <v>97900</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>5670</v>
+        <v>67080</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>650</v>
+        <v>146160</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>1050</v>
+        <v>111760</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>1200</v>
+        <v>151240</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>1700</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>2150</v>
+        <v>39930</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>2130</v>
+        <v>79350</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>4750</v>
+        <v>128360</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>1180</v>
+        <v>84920</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>6250</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>5830</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>3100</v>
+        <v>53750</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>5150</v>
+        <v>151350</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>2130</v>
+        <v>110980</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>650</v>
+        <v>154590</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>2440</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>2740</v>
+        <v>126210</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>6250</v>
+        <v>36800</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>4200</v>
+        <v>139850</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>500</v>
+        <v>72030</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>2050</v>
+        <v>137710</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>530</v>
+        <v>74160</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>3570</v>
+        <v>51180</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>950</v>
+        <v>56610</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>4780</v>
+        <v>135480</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>4770</v>
+        <v>39060</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>3220</v>
+        <v>100890</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>6250</v>
+        <v>99440</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>3750</v>
+        <v>37960</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>2130</v>
+        <v>135560</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>2880</v>
+        <v>127990</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>4500</v>
+        <v>207670</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>3730</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>1520</v>
+        <v>148120</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>2340</v>
+        <v>91900</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>5750</v>
+        <v>171430</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>3530</v>
+        <v>91980</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>5280</v>
+        <v>92300</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>6250</v>
+        <v>53440</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>5150</v>
+        <v>112460</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>1370</v>
+        <v>52940</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>4720</v>
+        <v>18060</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>3020</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>2630</v>
+        <v>102030</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>3810</v>
+        <v>58620</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>450</v>
+        <v>148730</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>4200</v>
+        <v>86390</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>2570</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>5150</v>
+        <v>133680</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>4850</v>
+        <v>164910</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>5280</v>
+        <v>112340</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>6250</v>
+        <v>49550</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>950</v>
+        <v>107250</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>3950</v>
+        <v>61630</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>3500</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>6250</v>
+        <v>83290</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1020</v>
+        <v>101100</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>3050</v>
+        <v>18170</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>6250</v>
+        <v>25260</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>5270</v>
+        <v>91650</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>3280</v>
+        <v>114160</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>6250</v>
+        <v>109680</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>3650</v>
+        <v>153170</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>4700</v>
+        <v>28290</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>4650</v>
+        <v>87730</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>6250</v>
+        <v>90180</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>6250</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>4470</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>1030</v>
+        <v>100140</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>4720</v>
+        <v>59760</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>5050</v>
+        <v>78390</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>6250</v>
+        <v>115930</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>5170</v>
+        <v>51910</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>3020</v>
+        <v>55010</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>650</v>
+        <v>72260</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>6250</v>
+        <v>138070</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>530</v>
+        <v>27540</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>4700</v>
+        <v>114070</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>3200</v>
+        <v>56540</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>3680</v>
+        <v>170170</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>1600</v>
+        <v>134370</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>5220</v>
+        <v>122280</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>4270</v>
+        <v>82630</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>5300</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>6250</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>2780</v>
+        <v>67750</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>5330</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>3510</v>
+        <v>106860</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>3700</v>
+        <v>88720</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>920</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>1000</v>
+        <v>98440</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>5830</v>
+        <v>93830</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>1150</v>
+        <v>34880</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>2720</v>
+        <v>48400</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>4070</v>
+        <v>24100</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>3170</v>
+        <v>139670</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>2230</v>
+        <v>16650</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>5220</v>
+        <v>122700</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>4150</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>3780</v>
+        <v>115290</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>4800</v>
+        <v>83230</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>1150</v>
+        <v>67280</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>6250</v>
+        <v>20670</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>3250</v>
+        <v>60200</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>4620</v>
+        <v>123450</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>4460</v>
+        <v>60940</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>4650</v>
+        <v>51230</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>3200</v>
+        <v>92530</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>3250</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>4180</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>5410</v>
+        <v>122970</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>1020</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>5140</v>
+        <v>115570</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>6250</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>1920</v>
+        <v>100570</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>450</v>
+        <v>73320</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>1020</v>
+        <v>101050</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>6250</v>
+        <v>114020</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>450</v>
+        <v>58350</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>1050</v>
+        <v>19350</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>6250</v>
+        <v>117250</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>3370</v>
+        <v>153090</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>4620</v>
+        <v>83290</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>4090</v>
+        <v>68310</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>5380</v>
+        <v>87800</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>3070</v>
+        <v>92180</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>4280</v>
+        <v>112600</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>4590</v>
+        <v>36090</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>5600</v>
+        <v>87030</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>2650</v>
+        <v>86380</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>1600</v>
+        <v>76480</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1050</v>
+        <v>70850</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>4850</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>1470</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>5670</v>
+        <v>68400</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>5270</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>950</v>
+        <v>54200</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>3180</v>
+        <v>92090</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>4400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>3800</v>
+        <v>135740</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>5220</v>
+        <v>113280</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>950</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>4700</v>
+        <v>60190</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>4070</v>
+        <v>34250</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>450</v>
+        <v>18210</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>4000</v>
+        <v>137260</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>5100</v>
+        <v>128020</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>1100</v>
+        <v>74150</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>1920</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>1530</v>
+        <v>95010</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>500</v>
+        <v>108150</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>450</v>
+        <v>77950</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>4450</v>
+        <v>96290</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>2180</v>
+        <v>79670</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>3750</v>
+        <v>174340</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>1290</v>
+        <v>19610</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>3000</v>
+        <v>75540</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>1550</v>
+        <v>97140</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>1970</v>
+        <v>77400</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>6250</v>
+        <v>107140</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>3250</v>
+        <v>145700</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>950</v>
+        <v>167740</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>6250</v>
+        <v>65840</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>1150</v>
+        <v>96720</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>2050</v>
+        <v>122580</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>4170</v>
+        <v>47460</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>3020</v>
+        <v>107070</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>3280</v>
+        <v>108150</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>1680</v>
+        <v>114540</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>4650</v>
+        <v>37860</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>5800</v>
+        <v>42610</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>3140</v>
+        <v>42810</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>2070</v>
+        <v>173880</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>2920</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>1680</v>
+        <v>87140</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>2570</v>
+        <v>121360</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>530</v>
+        <v>55340</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>5070</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>6250</v>
+        <v>12730</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>3600</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>2580</v>
+        <v>172230</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>4780</v>
+        <v>86040</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>4210</v>
+        <v>141440</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>2700</v>
+        <v>81220</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>4150</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>3820</v>
+        <v>78030</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>2730</v>
+        <v>81100</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>5300</v>
+        <v>78730</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>5180</v>
+        <v>76150</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>4600</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>5120</v>
+        <v>120100</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>6250</v>
+        <v>155530</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>3570</v>
+        <v>21860</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>3250</v>
+        <v>136080</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>600</v>
+        <v>18960</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>5330</v>
+        <v>115670</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>5800</v>
+        <v>65420</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>5830</v>
+        <v>147060</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>3150</v>
+        <v>79390</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>5200</v>
+        <v>128550</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>1110</v>
+        <v>153700</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>2550</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>5380</v>
+        <v>54890</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>3580</v>
+        <v>119790</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>2900</v>
+        <v>134560</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>4100</v>
+        <v>97940</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>6250</v>
+        <v>112800</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>1450</v>
+        <v>144170</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>2220</v>
+        <v>57810</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>5750</v>
+        <v>183100</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>580</v>
+        <v>74360</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>6250</v>
+        <v>19710</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>3530</v>
+        <v>125190</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>6250</v>
+        <v>145550</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>2070</v>
+        <v>93480</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>2070</v>
+        <v>56800</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>5650</v>
+        <v>19450</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>1180</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>3150</v>
+        <v>37240</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>5150</v>
+        <v>156310</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>3550</v>
+        <v>107070</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>6250</v>
+        <v>185360</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>5650</v>
+        <v>69920</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>5100</v>
+        <v>61950</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>5830</v>
+        <v>80150</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>4670</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>5330</v>
+        <v>133550</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>1400</v>
+        <v>66260</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>3600</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>4670</v>
+        <v>110170</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>5750</v>
+        <v>62280</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>1970</v>
+        <v>119160</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>5270</v>
+        <v>31580</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>4250</v>
+        <v>127810</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>3800</v>
+        <v>135180</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>5150</v>
+        <v>129990</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>4680</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>4050</v>
+        <v>38640</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>1520</v>
+        <v>131080</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>1250</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>5050</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>4720</v>
+        <v>114800</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>1100</v>
+        <v>160640</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>1080</v>
+        <v>132980</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>5670</v>
+        <v>75390</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>1480</v>
+        <v>36470</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>4120</v>
+        <v>187470</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>3330</v>
+        <v>63300</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>980</v>
+        <v>126160</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>5380</v>
+        <v>120780</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>1530</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>420</v>
+        <v>87010</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>3670</v>
+        <v>80560</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>5830</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>1980</v>
+        <v>102180</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>1600</v>
+        <v>181970</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>3920</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>4250</v>
+        <v>80370</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>1250</v>
+        <v>152440</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>450</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>6250</v>
+        <v>134970</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>5750</v>
+        <v>83020</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>5330</v>
+        <v>115810</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>6250</v>
+        <v>78010</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>6250</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>3430</v>
+        <v>56170</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>6250</v>
+        <v>61950</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>5600</v>
+        <v>20250</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>4680</v>
+        <v>35920</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>6250</v>
+        <v>169380</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>1050</v>
+        <v>131420</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>3200</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>3150</v>
+        <v>23850</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>5720</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>6250</v>
+        <v>59480</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>1430</v>
+        <v>81830</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>4150</v>
+        <v>126090</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>600</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>2450</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>4360</v>
+        <v>139820</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>870</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>1480</v>
+        <v>111350</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>5600</v>
+        <v>173450</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>3470</v>
+        <v>73390</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>3800</v>
+        <v>153220</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>3730</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>2280</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>3100</v>
+        <v>103240</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>5750</v>
+        <v>100820</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>6250</v>
+        <v>64300</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>2030</v>
+        <v>50170</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>1620</v>
+        <v>82150</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>4200</v>
+        <v>20950</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>1900</v>
+        <v>21960</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>5650</v>
+        <v>36920</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>3980</v>
+        <v>55500</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>3150</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>2280</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>4130</v>
+        <v>80870</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>2400</v>
+        <v>136910</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>4730</v>
+        <v>79120</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>3650</v>
+        <v>49830</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>530</v>
+        <v>102890</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>1250</v>
+        <v>142870</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>4280</v>
+        <v>58280</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>4100</v>
+        <v>95070</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>4550</v>
+        <v>96640</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>2500</v>
+        <v>52320</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>600</v>
+        <v>124360</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>1970</v>
+        <v>27930</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>4120</v>
+        <v>109250</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>6250</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>1470</v>
+        <v>138660</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>650</v>
+        <v>175510</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>2120</v>
+        <v>177560</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>1520</v>
+        <v>121720</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>3210</v>
+        <v>73980</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>5180</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>2680</v>
+        <v>600</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>5350</v>
+        <v>122680</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>3030</v>
+        <v>70820</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>2550</v>
+        <v>160770</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>1070</v>
+        <v>108130</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>5830</v>
+        <v>180680</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>950</v>
+        <v>139900</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>600</v>
+        <v>8490</v>
       </c>
     </row>
   </sheetData>
